--- a/data_python/dfc_Abidar_El_Mehdi.xlsx
+++ b/data_python/dfc_Abidar_El_Mehdi.xlsx
@@ -425,7 +425,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>densite_pop</t>
+          <t>Densite_Pop</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
